--- a/data/ethnicity_info.xlsx
+++ b/data/ethnicity_info.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\Thesis2\Geopolitics of repressions\Geopolitics-of-Repressions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C20EF9-0340-4B79-A548-B95C6EAD3ADB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C11E4B9-BF6F-4EFA-BF82-10581F5473F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6516" yWindow="1896" windowWidth="18432" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7536" yWindow="1464" windowWidth="18432" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ethnicity</t>
   </si>
@@ -76,17 +84,26 @@
     <t>Ukrainian</t>
   </si>
   <si>
-    <t>population</t>
-  </si>
-  <si>
     <t>clad_sim</t>
+  </si>
+  <si>
+    <t>urb_rate</t>
+  </si>
+  <si>
+    <t>urban_pop</t>
+  </si>
+  <si>
+    <t>pop_total</t>
+  </si>
+  <si>
+    <t>rural_pop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +118,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,18 +151,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Procenta" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,18 +514,27 @@
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -500,8 +544,19 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>555675</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E15" si="0">B2-D2</f>
+        <v>1011893</v>
+      </c>
+      <c r="F2" s="4">
+        <f>D2/B2</f>
+        <v>0.35448222979800559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -511,8 +566,19 @@
       <c r="C3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>489115</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>4249808</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F18" si="1">D3/B3</f>
+        <v>0.10321226996091729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -522,8 +588,19 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>35578</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>119088</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.23003116392743073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -533,8 +610,19 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>184769</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1053780</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.14918182486118836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -544,8 +632,19 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>45347</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>168418</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21213482094823755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -555,8 +654,19 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>3111</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>315411</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7669862678245144E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -566,8 +676,19 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>6647</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64867766175465991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -577,8 +698,19 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>2143262</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>456711</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8243400989164118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -588,8 +720,19 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1781</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>138144</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2728247275326067E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -599,8 +742,19 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1670</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>127651</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2913602585813595E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -610,8 +764,19 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>9156</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>77843</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1052425889952758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -621,8 +786,19 @@
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>59959</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>81744</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.42313147922062344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -632,8 +808,19 @@
       <c r="C14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>26190</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>15273</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6316474929455177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -643,8 +830,19 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>21392</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>250880</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>7.8568490333196211E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -654,8 +852,19 @@
       <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>256185</v>
+      </c>
+      <c r="E16">
+        <f>B16-D16</f>
+        <v>526149</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.3274624393162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -665,8 +874,19 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>451440</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E18" si="2">B17-D17</f>
+        <v>2465096</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.15478636300049101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -675,6 +895,17 @@
       </c>
       <c r="C18">
         <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3286945</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>27908031</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10536776819446823</v>
       </c>
     </row>
   </sheetData>

--- a/data/ethnicity_info.xlsx
+++ b/data/ethnicity_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\Thesis2\Geopolitics of repressions\Geopolitics-of-Repressions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C11E4B9-BF6F-4EFA-BF82-10581F5473F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA2E614-82E1-404C-A0F7-2DBCB5374F11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7536" yWindow="1464" windowWidth="18432" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5508" yWindow="3216" windowWidth="18432" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ethnicity</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Armenian</t>
   </si>
   <si>
-    <t>Belarussian</t>
-  </si>
-  <si>
     <t>Estonian</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Jewish</t>
   </si>
   <si>
-    <t>Kabardin</t>
-  </si>
-  <si>
     <t>Kalmyk</t>
   </si>
   <si>
@@ -97,6 +91,75 @@
   </si>
   <si>
     <t>rural_pop</t>
+  </si>
+  <si>
+    <t>Altai</t>
+  </si>
+  <si>
+    <t>Balkar</t>
+  </si>
+  <si>
+    <t>Bashkir</t>
+  </si>
+  <si>
+    <t>Belorussian</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>Buryat</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Chuvash</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Kabardian</t>
+  </si>
+  <si>
+    <t>Karelian</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>Khakas</t>
+  </si>
+  <si>
+    <t>Komi</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Moldovan</t>
+  </si>
+  <si>
+    <t>Mordvin</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Udmurt</t>
+  </si>
+  <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
+    <t>Yakut</t>
   </si>
 </sst>
 </file>
@@ -502,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -558,7 +621,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>4738923</v>
@@ -574,13 +637,13 @@
         <v>4249808</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F18" si="1">D3/B3</f>
+        <f t="shared" ref="F3:F39" si="1">D3/B3</f>
         <v>0.10321226996091729</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>154666</v>
@@ -602,7 +665,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1238549</v>
@@ -624,7 +687,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>213765</v>
@@ -646,7 +709,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>318522</v>
@@ -668,7 +731,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>10247</v>
@@ -690,7 +753,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2599973</v>
@@ -712,7 +775,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>139925</v>
@@ -734,7 +797,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>129321</v>
@@ -756,7 +819,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>86999</v>
@@ -778,7 +841,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>141703</v>
@@ -800,7 +863,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>41463</v>
@@ -822,7 +885,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>272272</v>
@@ -844,7 +907,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>782334</v>
@@ -866,7 +929,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>2916536</v>
@@ -878,7 +941,7 @@
         <v>451440</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E18" si="2">B17-D17</f>
+        <f t="shared" ref="E17:E39" si="2">B17-D17</f>
         <v>2465096</v>
       </c>
       <c r="F17" s="4">
@@ -888,7 +951,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>31194976</v>
@@ -906,6 +969,472 @@
       <c r="F18" s="4">
         <f t="shared" si="1"/>
         <v>0.10536776819446823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>39062</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>118</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>38944</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0208386667349343E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>33307</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>411</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>32896</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2339748401236977E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>713693</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>15147</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>698546</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1223411186602644E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>111296</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>6968</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>104328</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
+        <v>6.2607820586543989E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>237501</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2491</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>235010</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0488376891044669E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <f>19467 + 115234</f>
+        <v>134701</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f xml:space="preserve"> 7329 + 6883</f>
+        <v>14212</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>120489</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10550775421117883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1821184</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>308284</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1512900</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16927669032892886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>5476</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3468</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63330898466033603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1117419</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>17847</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>1099572</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5971627473669231E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>93</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>71</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="1"/>
+        <v>0.76344086021505375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>248120</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>7228</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>240892</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9131065613412863E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>3968289</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>86595</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>3881694</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1821747357614326E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>45608</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>492</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>45116</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0787581126118224E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <f xml:space="preserve"> 149488 + 226383</f>
+        <v>375871</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f xml:space="preserve"> 7894 + 1710</f>
+        <v>9604</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>366267</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5551319468647488E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>428192</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3576</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>424616</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3513937672819675E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>278905</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>13567</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>265338</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8643803445617681E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>1340415</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>29336</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>1311079</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1885759261124352E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>77791124</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>16582231</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>61208893</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21316353521257772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>504187</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>6109</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>498078</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2116536126476882E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>3904622</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>728452</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>3176170</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18656146484858202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>240709</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>5288</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>235421</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1968434915188049E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/ethnicity_info.xlsx
+++ b/data/ethnicity_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\Thesis2\Geopolitics of repressions\Geopolitics-of-Repressions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA2E614-82E1-404C-A0F7-2DBCB5374F11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9779B063-9227-49E7-A2BD-36498A254C29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="3216" windowWidth="18432" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3372" yWindow="3120" windowWidth="18432" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ethnicity</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Yakut</t>
+  </si>
+  <si>
+    <t>ind_country</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +580,7 @@
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,8 +599,11 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -618,8 +624,11 @@
         <f>D2/B2</f>
         <v>0.35448222979800559</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -640,8 +649,11 @@
         <f t="shared" ref="F3:F39" si="1">D3/B3</f>
         <v>0.10321226996091729</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -662,8 +674,11 @@
         <f t="shared" si="1"/>
         <v>0.23003116392743073</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -684,8 +699,11 @@
         <f t="shared" si="1"/>
         <v>0.14918182486118836</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -706,8 +724,11 @@
         <f t="shared" si="1"/>
         <v>0.21213482094823755</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -728,8 +749,11 @@
         <f t="shared" si="1"/>
         <v>9.7669862678245144E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -750,8 +774,11 @@
         <f t="shared" si="1"/>
         <v>0.64867766175465991</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -772,8 +799,11 @@
         <f t="shared" si="1"/>
         <v>0.8243400989164118</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -794,8 +824,11 @@
         <f t="shared" si="1"/>
         <v>1.2728247275326067E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -816,8 +849,11 @@
         <f t="shared" si="1"/>
         <v>1.2913602585813595E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -838,8 +874,11 @@
         <f t="shared" si="1"/>
         <v>0.1052425889952758</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -860,8 +899,11 @@
         <f t="shared" si="1"/>
         <v>0.42313147922062344</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -882,8 +924,11 @@
         <f t="shared" si="1"/>
         <v>0.6316474929455177</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -904,8 +949,11 @@
         <f t="shared" si="1"/>
         <v>7.8568490333196211E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -926,8 +974,11 @@
         <f t="shared" si="1"/>
         <v>0.3274624393162</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -948,8 +999,11 @@
         <f t="shared" si="1"/>
         <v>0.15478636300049101</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -970,8 +1024,11 @@
         <f t="shared" si="1"/>
         <v>0.10536776819446823</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -992,8 +1049,11 @@
         <f t="shared" si="1"/>
         <v>3.0208386667349343E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1014,8 +1074,11 @@
         <f t="shared" si="1"/>
         <v>1.2339748401236977E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1036,8 +1099,11 @@
         <f t="shared" si="1"/>
         <v>2.1223411186602644E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1058,8 +1124,11 @@
         <f t="shared" si="1"/>
         <v>6.2607820586543989E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1080,8 +1149,11 @@
         <f t="shared" si="1"/>
         <v>1.0488376891044669E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1104,8 +1176,11 @@
         <f t="shared" si="1"/>
         <v>0.10550775421117883</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1126,8 +1201,11 @@
         <f t="shared" si="1"/>
         <v>0.16927669032892886</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1148,8 +1226,11 @@
         <f t="shared" si="1"/>
         <v>0.63330898466033603</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1170,8 +1251,11 @@
         <f t="shared" si="1"/>
         <v>1.5971627473669231E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1192,8 +1276,11 @@
         <f t="shared" si="1"/>
         <v>0.76344086021505375</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1214,8 +1301,11 @@
         <f t="shared" si="1"/>
         <v>2.9131065613412863E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1236,8 +1326,11 @@
         <f t="shared" si="1"/>
         <v>2.1821747357614326E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1258,8 +1351,11 @@
         <f t="shared" si="1"/>
         <v>1.0787581126118224E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1282,8 +1378,11 @@
         <f t="shared" si="1"/>
         <v>2.5551319468647488E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1304,8 +1403,11 @@
         <f t="shared" si="1"/>
         <v>8.3513937672819675E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1326,8 +1428,11 @@
         <f t="shared" si="1"/>
         <v>4.8643803445617681E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1348,8 +1453,11 @@
         <f t="shared" si="1"/>
         <v>2.1885759261124352E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1370,8 +1478,11 @@
         <f t="shared" si="1"/>
         <v>0.21316353521257772</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1392,8 +1503,11 @@
         <f t="shared" si="1"/>
         <v>1.2116536126476882E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1414,8 +1528,11 @@
         <f t="shared" si="1"/>
         <v>0.18656146484858202</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1435,6 +1552,9 @@
       <c r="F39" s="4">
         <f t="shared" si="1"/>
         <v>2.1968434915188049E-2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
